--- a/post_processing/house/2014/2014_house_results_national.xlsx
+++ b/post_processing/house/2014/2014_house_results_national.xlsx
@@ -573,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>47913</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>48789</v>
@@ -607,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>53641</v>
@@ -624,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>115212</v>
@@ -652,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>42172</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>99069</v>
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>94551</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>108051</v>
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>57398</v>
@@ -754,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>44680</v>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>54575</v>
@@ -791,7 +791,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>70171</v>
@@ -808,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>54222</v>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>128653</v>
@@ -839,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>88436</v>
@@ -859,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>62902</v>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>103379</v>
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>151093</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>87335</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>67938</v>
@@ -953,7 +953,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>117397</v>
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>68303</v>
@@ -987,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>173501</v>
@@ -1001,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>97446</v>
@@ -1015,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>80258</v>
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>75603</v>
@@ -1049,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>35414</v>
@@ -1066,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>46762</v>
@@ -1083,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>48510</v>
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>106989</v>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>150390</v>
@@ -1134,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>166182</v>
@@ -1151,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>89009</v>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>98511</v>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>41458</v>
@@ -1202,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>131294</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>119532</v>
@@ -1233,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>122883</v>
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>77305</v>
@@ -1261,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43">
         <v>29244</v>
@@ -1278,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44">
         <v>30734</v>
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45">
         <v>30834</v>
@@ -1312,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46">
         <v>97363</v>
@@ -1329,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>101046</v>
@@ -1343,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48">
         <v>79848</v>
@@ -1360,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49">
         <v>67884</v>
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50">
         <v>77761</v>
@@ -1391,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>41419</v>
@@ -1408,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52">
         <v>71736</v>
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53">
         <v>48960</v>
@@ -1442,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54">
         <v>44504</v>
@@ -1459,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>93544</v>
@@ -1476,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>51147</v>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57">
         <v>58463</v>
@@ -1504,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D58">
         <v>67970</v>
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59">
         <v>79699</v>
@@ -1538,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60">
         <v>51862</v>
@@ -1555,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61">
         <v>39300</v>
@@ -1572,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D62">
         <v>43351</v>
@@ -1586,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63">
         <v>43180</v>
@@ -1603,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64">
         <v>36575</v>
@@ -1620,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65">
         <v>59591</v>
@@ -1637,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66">
         <v>51711</v>
@@ -1651,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67">
         <v>55064</v>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68">
         <v>45694</v>
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D69">
         <v>62544</v>
@@ -1702,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D70">
         <v>60164</v>
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D71">
         <v>62313</v>
@@ -1736,7 +1736,7 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72">
         <v>43299</v>
@@ -1753,7 +1753,7 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D73">
         <v>51644</v>
@@ -1770,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D74">
         <v>98332</v>
@@ -1787,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D75">
         <v>83686</v>
@@ -1804,7 +1804,7 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>174756</v>
@@ -1824,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>191733</v>
@@ -1841,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>98172</v>
@@ -1861,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>82872</v>
@@ -1881,7 +1881,7 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80">
         <v>105373</v>
@@ -1898,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <v>116621</v>
@@ -1921,7 +1921,7 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>139166</v>
@@ -1938,7 +1938,7 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>135134</v>
@@ -1958,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>141069</v>
@@ -1981,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>139432</v>
@@ -1998,7 +1998,7 @@
         <v>12</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86">
         <v>106690</v>
@@ -2015,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87">
         <v>109819</v>
@@ -2032,7 +2032,7 @@
         <v>13</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>137245</v>
@@ -2055,7 +2055,7 @@
         <v>14</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>54892</v>
@@ -2072,7 +2072,7 @@
         <v>14</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>125132</v>
@@ -2089,7 +2089,7 @@
         <v>14</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>73695</v>
@@ -2106,7 +2106,7 @@
         <v>14</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E92">
         <v>177565</v>
@@ -2120,7 +2120,7 @@
         <v>14</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93">
         <v>112092</v>
@@ -2137,7 +2137,7 @@
         <v>14</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94">
         <v>99463</v>
@@ -2154,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95">
         <v>72925</v>
@@ -2171,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D96">
         <v>93588</v>
@@ -2188,7 +2188,7 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97">
         <v>93739</v>
@@ -2205,7 +2205,7 @@
         <v>14</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98">
         <v>89267</v>
@@ -2222,7 +2222,7 @@
         <v>14</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99">
         <v>90706</v>
@@ -2239,7 +2239,7 @@
         <v>14</v>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>14</v>
       </c>
       <c r="C101">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101">
         <v>168092</v>
@@ -2270,7 +2270,7 @@
         <v>14</v>
       </c>
       <c r="C102">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>14</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103">
         <v>84620</v>
@@ -2301,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="C104">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104">
         <v>105357</v>
@@ -2318,7 +2318,7 @@
         <v>14</v>
       </c>
       <c r="C105">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D105">
         <v>82126</v>
@@ -2335,7 +2335,7 @@
         <v>14</v>
       </c>
       <c r="C106">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D106">
         <v>151253</v>
@@ -2352,7 +2352,7 @@
         <v>14</v>
       </c>
       <c r="C107">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107">
         <v>80607</v>
@@ -2372,7 +2372,7 @@
         <v>14</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108">
         <v>128217</v>
@@ -2389,7 +2389,7 @@
         <v>14</v>
       </c>
       <c r="C109">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>14</v>
       </c>
       <c r="C110">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D110">
         <v>125071</v>
@@ -2420,7 +2420,7 @@
         <v>14</v>
       </c>
       <c r="C111">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D111">
         <v>103034</v>
@@ -2437,7 +2437,7 @@
         <v>14</v>
       </c>
       <c r="C112">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D112">
         <v>129065</v>
@@ -2454,7 +2454,7 @@
         <v>14</v>
       </c>
       <c r="C113">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>14</v>
       </c>
       <c r="C114">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D114">
         <v>77958</v>
@@ -2485,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="C115">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>15</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>59594</v>
@@ -2516,7 +2516,7 @@
         <v>15</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>96215</v>
@@ -2533,7 +2533,7 @@
         <v>15</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>15</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121">
         <v>71140</v>
@@ -2592,7 +2592,7 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D122">
         <v>59740</v>
@@ -2609,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>15</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D124">
         <v>34866</v>
@@ -2640,7 +2640,7 @@
         <v>15</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D125">
         <v>65676</v>
@@ -2657,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>15</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127">
         <v>75123</v>
@@ -2688,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="C128">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>15</v>
       </c>
       <c r="C129">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>16</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>93331</v>
@@ -2733,7 +2733,7 @@
         <v>16</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
         <v>141978</v>
@@ -2753,7 +2753,7 @@
         <v>17</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>77352</v>
@@ -2770,7 +2770,7 @@
         <v>17</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>82728</v>
@@ -2787,7 +2787,7 @@
         <v>18</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>151566</v>
@@ -2804,7 +2804,7 @@
         <v>18</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>152905</v>
@@ -2821,7 +2821,7 @@
         <v>18</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136">
         <v>113059</v>
@@ -2838,7 +2838,7 @@
         <v>18</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137">
         <v>75344</v>
@@ -2855,7 +2855,7 @@
         <v>18</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138">
         <v>109796</v>
@@ -2875,7 +2875,7 @@
         <v>18</v>
       </c>
       <c r="C139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D139">
         <v>74941</v>
@@ -2892,7 +2892,7 @@
         <v>18</v>
       </c>
       <c r="C140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D140">
         <v>145749</v>
@@ -2909,7 +2909,7 @@
         <v>18</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141">
         <v>79651</v>
@@ -2926,7 +2926,7 @@
         <v>18</v>
       </c>
       <c r="C142">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D142">
         <v>134070</v>
@@ -2943,7 +2943,7 @@
         <v>18</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D143">
         <v>88010</v>
@@ -2960,7 +2960,7 @@
         <v>18</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144">
         <v>87790</v>
@@ -2977,7 +2977,7 @@
         <v>18</v>
       </c>
       <c r="C145">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D145">
         <v>84136</v>
@@ -2997,7 +2997,7 @@
         <v>18</v>
       </c>
       <c r="C146">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D146">
         <v>86126</v>
@@ -3014,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="C147">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D147">
         <v>75229</v>
@@ -3031,7 +3031,7 @@
         <v>18</v>
       </c>
       <c r="C148">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D148">
         <v>55314</v>
@@ -3048,7 +3048,7 @@
         <v>18</v>
       </c>
       <c r="C149">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149">
         <v>62695</v>
@@ -3065,7 +3065,7 @@
         <v>18</v>
       </c>
       <c r="C150">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D150">
         <v>108229</v>
@@ -3082,7 +3082,7 @@
         <v>18</v>
       </c>
       <c r="C151">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151">
         <v>61652</v>
@@ -3099,7 +3099,7 @@
         <v>19</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152">
         <v>86572</v>
@@ -3119,7 +3119,7 @@
         <v>19</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
         <v>55331</v>
@@ -3139,7 +3139,7 @@
         <v>19</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>39629</v>
@@ -3159,7 +3159,7 @@
         <v>19</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D155">
         <v>47025</v>
@@ -3176,7 +3176,7 @@
         <v>19</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D156">
         <v>49705</v>
@@ -3196,7 +3196,7 @@
         <v>19</v>
       </c>
       <c r="C157">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D157">
         <v>45062</v>
@@ -3216,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D158">
         <v>60870</v>
@@ -3236,7 +3236,7 @@
         <v>19</v>
       </c>
       <c r="C159">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D159">
         <v>61309</v>
@@ -3256,7 +3256,7 @@
         <v>19</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160">
         <v>52659</v>
@@ -3276,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161">
         <v>140086</v>
@@ -3293,7 +3293,7 @@
         <v>20</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
         <v>142566</v>
@@ -3310,7 +3310,7 @@
         <v>20</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D163">
         <v>118938</v>
@@ -3330,7 +3330,7 @@
         <v>20</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D164">
         <v>104873</v>
@@ -3347,7 +3347,7 @@
         <v>21</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>63577</v>
@@ -3364,7 +3364,7 @@
         <v>21</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <v>85076</v>
@@ -3384,7 +3384,7 @@
         <v>21</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D167">
         <v>87781</v>
@@ -3401,7 +3401,7 @@
         <v>21</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D168">
         <v>67643</v>
@@ -3418,7 +3418,7 @@
         <v>22</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
         <v>63595</v>
@@ -3435,7 +3435,7 @@
         <v>22</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>69898</v>
@@ -3452,7 +3452,7 @@
         <v>22</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D171">
         <v>157056</v>
@@ -3469,7 +3469,7 @@
         <v>22</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D172">
         <v>71693</v>
@@ -3486,7 +3486,7 @@
         <v>22</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D173">
         <v>47617</v>
@@ -3503,7 +3503,7 @@
         <v>22</v>
       </c>
       <c r="C174">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D174">
         <v>98429</v>
@@ -3520,7 +3520,7 @@
         <v>23</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>45890</v>
@@ -3540,7 +3540,7 @@
         <v>23</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
         <v>189878</v>
@@ -3557,7 +3557,7 @@
         <v>23</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177">
         <v>207891</v>
@@ -3571,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E178">
         <v>152670</v>
@@ -3588,7 +3588,7 @@
         <v>23</v>
       </c>
       <c r="C179">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D179">
         <v>67610</v>
@@ -3611,7 +3611,7 @@
         <v>23</v>
       </c>
       <c r="C180">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <v>89194</v>
@@ -3631,7 +3631,7 @@
         <v>24</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <v>186309</v>
@@ -3648,7 +3648,7 @@
         <v>24</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <v>118070</v>
@@ -3665,7 +3665,7 @@
         <v>25</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>70532</v>
@@ -3682,7 +3682,7 @@
         <v>25</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>115586</v>
@@ -3702,7 +3702,7 @@
         <v>25</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D185">
         <v>122066</v>
@@ -3719,7 +3719,7 @@
         <v>25</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D186">
         <v>126633</v>
@@ -3739,7 +3739,7 @@
         <v>25</v>
       </c>
       <c r="C187">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D187">
         <v>138284</v>
@@ -3756,7 +3756,7 @@
         <v>25</v>
       </c>
       <c r="C188">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D188">
         <v>91569</v>
@@ -3776,7 +3776,7 @@
         <v>25</v>
       </c>
       <c r="C189">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D189">
         <v>136913</v>
@@ -3796,7 +3796,7 @@
         <v>25</v>
       </c>
       <c r="C190">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D190">
         <v>127260</v>
@@ -3813,7 +3813,7 @@
         <v>26</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>26</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3841,7 +3841,7 @@
         <v>26</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D193">
         <v>138120</v>
@@ -3858,7 +3858,7 @@
         <v>26</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>26</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>26</v>
       </c>
       <c r="C196">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D196">
         <v>149449</v>
@@ -3903,7 +3903,7 @@
         <v>26</v>
       </c>
       <c r="C197">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>26</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>26</v>
       </c>
       <c r="C199">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D199">
         <v>140100</v>
@@ -3948,7 +3948,7 @@
         <v>27</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>113259</v>
@@ -3971,7 +3971,7 @@
         <v>27</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
         <v>71022</v>
@@ -3991,7 +3991,7 @@
         <v>27</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D202">
         <v>84713</v>
@@ -4011,7 +4011,7 @@
         <v>27</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D203">
         <v>86133</v>
@@ -4031,7 +4031,7 @@
         <v>27</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D204">
         <v>140939</v>
@@ -4051,7 +4051,7 @@
         <v>27</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D205">
         <v>84391</v>
@@ -4074,7 +4074,7 @@
         <v>27</v>
       </c>
       <c r="C206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D206">
         <v>91403</v>
@@ -4094,7 +4094,7 @@
         <v>27</v>
       </c>
       <c r="C207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D207">
         <v>101191</v>
@@ -4117,7 +4117,7 @@
         <v>27</v>
       </c>
       <c r="C208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D208">
         <v>136334</v>
@@ -4140,7 +4140,7 @@
         <v>27</v>
       </c>
       <c r="C209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D209">
         <v>67061</v>
@@ -4160,7 +4160,7 @@
         <v>27</v>
       </c>
       <c r="C210">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D210">
         <v>100665</v>
@@ -4180,7 +4180,7 @@
         <v>27</v>
       </c>
       <c r="C211">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D211">
         <v>133323</v>
@@ -4200,7 +4200,7 @@
         <v>27</v>
       </c>
       <c r="C212">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D212">
         <v>130905</v>
@@ -4220,7 +4220,7 @@
         <v>27</v>
       </c>
       <c r="C213">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D213">
         <v>165116</v>
@@ -4243,7 +4243,7 @@
         <v>28</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>122637</v>
@@ -4260,7 +4260,7 @@
         <v>28</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
         <v>95565</v>
@@ -4277,7 +4277,7 @@
         <v>28</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216">
         <v>101847</v>
@@ -4294,7 +4294,7 @@
         <v>28</v>
       </c>
       <c r="C217">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D217">
         <v>147842</v>
@@ -4311,7 +4311,7 @@
         <v>28</v>
       </c>
       <c r="C218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D218">
         <v>167079</v>
@@ -4328,7 +4328,7 @@
         <v>28</v>
       </c>
       <c r="C219">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D219">
         <v>90926</v>
@@ -4345,7 +4345,7 @@
         <v>28</v>
       </c>
       <c r="C220">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D220">
         <v>130536</v>
@@ -4362,7 +4362,7 @@
         <v>28</v>
       </c>
       <c r="C221">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D221">
         <v>128920</v>
@@ -4382,7 +4382,7 @@
         <v>29</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222">
         <v>43039</v>
@@ -4402,7 +4402,7 @@
         <v>29</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
         <v>96631</v>
@@ -4416,7 +4416,7 @@
         <v>29</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D224">
         <v>46506</v>
@@ -4433,7 +4433,7 @@
         <v>29</v>
       </c>
       <c r="C225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D225">
         <v>36858</v>
@@ -4453,7 +4453,7 @@
         <v>30</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226">
         <v>118005</v>
@@ -4473,7 +4473,7 @@
         <v>30</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
         <v>74807</v>
@@ -4493,7 +4493,7 @@
         <v>30</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D228">
         <v>51990</v>
@@ -4513,7 +4513,7 @@
         <v>30</v>
       </c>
       <c r="C229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D229">
         <v>46438</v>
@@ -4533,7 +4533,7 @@
         <v>30</v>
       </c>
       <c r="C230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D230">
         <v>79094</v>
@@ -4553,7 +4553,7 @@
         <v>30</v>
       </c>
       <c r="C231">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D231">
         <v>55132</v>
@@ -4573,7 +4573,7 @@
         <v>30</v>
       </c>
       <c r="C232">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D232">
         <v>47267</v>
@@ -4593,7 +4593,7 @@
         <v>30</v>
       </c>
       <c r="C233">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D233">
         <v>38702</v>
@@ -4613,7 +4613,7 @@
         <v>31</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D234">
         <v>146187</v>
@@ -4633,7 +4633,7 @@
         <v>32</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
         <v>54995</v>
@@ -4650,7 +4650,7 @@
         <v>32</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <v>76354</v>
@@ -4670,7 +4670,7 @@
         <v>32</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D237">
         <v>45426</v>
@@ -4687,7 +4687,7 @@
         <v>33</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238">
         <v>45618</v>
@@ -4707,7 +4707,7 @@
         <v>33</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
         <v>52033</v>
@@ -4724,7 +4724,7 @@
         <v>33</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240">
         <v>52615</v>
@@ -4744,7 +4744,7 @@
         <v>33</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D241">
         <v>59800</v>
@@ -4764,7 +4764,7 @@
         <v>34</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242">
         <v>116626</v>
@@ -4781,7 +4781,7 @@
         <v>34</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
         <v>130428</v>
@@ -4798,7 +4798,7 @@
         <v>35</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244">
         <v>91834</v>
@@ -4815,7 +4815,7 @@
         <v>35</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245">
         <v>62986</v>
@@ -4832,7 +4832,7 @@
         <v>35</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D246">
         <v>77240</v>
@@ -4849,7 +4849,7 @@
         <v>35</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D247">
         <v>52978</v>
@@ -4866,7 +4866,7 @@
         <v>35</v>
       </c>
       <c r="C248">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D248">
         <v>77708</v>
@@ -4883,7 +4883,7 @@
         <v>35</v>
       </c>
       <c r="C249">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D249">
         <v>70741</v>
@@ -4900,7 +4900,7 @@
         <v>35</v>
       </c>
       <c r="C250">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D250">
         <v>67759</v>
@@ -4917,7 +4917,7 @@
         <v>35</v>
       </c>
       <c r="C251">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D251">
         <v>60628</v>
@@ -4934,7 +4934,7 @@
         <v>35</v>
       </c>
       <c r="C252">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D252">
         <v>78920</v>
@@ -4951,7 +4951,7 @@
         <v>35</v>
       </c>
       <c r="C253">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D253">
         <v>94057</v>
@@ -4968,7 +4968,7 @@
         <v>35</v>
       </c>
       <c r="C254">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D254">
         <v>64935</v>
@@ -4985,7 +4985,7 @@
         <v>35</v>
       </c>
       <c r="C255">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D255">
         <v>89699</v>
@@ -5002,7 +5002,7 @@
         <v>36</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256">
         <v>102471</v>
@@ -5019,7 +5019,7 @@
         <v>36</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D257">
         <v>51976</v>
@@ -5036,7 +5036,7 @@
         <v>36</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D258">
         <v>110497</v>
@@ -5053,7 +5053,7 @@
         <v>37</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259">
         <v>73860</v>
@@ -5070,7 +5070,7 @@
         <v>37</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
         <v>40009</v>
@@ -5090,7 +5090,7 @@
         <v>37</v>
       </c>
       <c r="C261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D261">
         <v>85310</v>
@@ -5107,7 +5107,7 @@
         <v>37</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D262">
         <v>85294</v>
@@ -5124,7 +5124,7 @@
         <v>37</v>
       </c>
       <c r="C263">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D263">
         <v>72454</v>
@@ -5138,7 +5138,7 @@
         <v>37</v>
       </c>
       <c r="C264">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>37</v>
       </c>
       <c r="C265">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D265">
         <v>53283</v>
@@ -5169,7 +5169,7 @@
         <v>37</v>
       </c>
       <c r="C266">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D266">
         <v>71280</v>
@@ -5183,7 +5183,7 @@
         <v>37</v>
       </c>
       <c r="C267">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D267">
         <v>78157</v>
@@ -5197,7 +5197,7 @@
         <v>37</v>
       </c>
       <c r="C268">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D268">
         <v>82880</v>
@@ -5211,7 +5211,7 @@
         <v>37</v>
       </c>
       <c r="C269">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D269">
         <v>42786</v>
@@ -5231,7 +5231,7 @@
         <v>37</v>
       </c>
       <c r="C270">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D270">
         <v>83870</v>
@@ -5248,7 +5248,7 @@
         <v>37</v>
       </c>
       <c r="C271">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D271">
         <v>64142</v>
@@ -5265,7 +5265,7 @@
         <v>37</v>
       </c>
       <c r="C272">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D272">
         <v>47370</v>
@@ -5279,7 +5279,7 @@
         <v>37</v>
       </c>
       <c r="C273">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D273">
         <v>51665</v>
@@ -5296,7 +5296,7 @@
         <v>37</v>
       </c>
       <c r="C274">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -5310,7 +5310,7 @@
         <v>37</v>
       </c>
       <c r="C275">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D275">
         <v>93001</v>
@@ -5327,7 +5327,7 @@
         <v>37</v>
       </c>
       <c r="C276">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D276">
         <v>84415</v>
@@ -5344,7 +5344,7 @@
         <v>37</v>
       </c>
       <c r="C277">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D277">
         <v>67024</v>
@@ -5361,7 +5361,7 @@
         <v>37</v>
       </c>
       <c r="C278">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D278">
         <v>118993</v>
@@ -5378,7 +5378,7 @@
         <v>37</v>
       </c>
       <c r="C279">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D279">
         <v>54796</v>
@@ -5398,7 +5398,7 @@
         <v>37</v>
       </c>
       <c r="C280">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>37</v>
       </c>
       <c r="C281">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D281">
         <v>63229</v>
@@ -5429,7 +5429,7 @@
         <v>37</v>
       </c>
       <c r="C282">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D282">
         <v>75690</v>
@@ -5446,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="C283">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D283">
         <v>93053</v>
@@ -5463,7 +5463,7 @@
         <v>37</v>
       </c>
       <c r="C284">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D284">
         <v>79344</v>
@@ -5480,7 +5480,7 @@
         <v>37</v>
       </c>
       <c r="C285">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D285">
         <v>49423</v>
@@ -5497,7 +5497,7 @@
         <v>38</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D286">
         <v>150529</v>
@@ -5514,7 +5514,7 @@
         <v>38</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
         <v>84826</v>
@@ -5531,7 +5531,7 @@
         <v>38</v>
       </c>
       <c r="C288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D288">
         <v>65548</v>
@@ -5548,7 +5548,7 @@
         <v>38</v>
       </c>
       <c r="C289">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D289">
         <v>168005</v>
@@ -5565,7 +5565,7 @@
         <v>38</v>
       </c>
       <c r="C290">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D290">
         <v>88670</v>
@@ -5582,7 +5582,7 @@
         <v>38</v>
       </c>
       <c r="C291">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D291">
         <v>103085</v>
@@ -5599,7 +5599,7 @@
         <v>38</v>
       </c>
       <c r="C292">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D292">
         <v>83676</v>
@@ -5619,7 +5619,7 @@
         <v>38</v>
       </c>
       <c r="C293">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D293">
         <v>65172</v>
@@ -5636,7 +5636,7 @@
         <v>38</v>
       </c>
       <c r="C294">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         <v>38</v>
       </c>
       <c r="C295">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D295">
         <v>84921</v>
@@ -5667,7 +5667,7 @@
         <v>38</v>
       </c>
       <c r="C296">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D296">
         <v>84723</v>
@@ -5684,7 +5684,7 @@
         <v>38</v>
       </c>
       <c r="C297">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D297">
         <v>129178</v>
@@ -5701,7 +5701,7 @@
         <v>38</v>
       </c>
       <c r="C298">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D298">
         <v>113481</v>
@@ -5718,7 +5718,7 @@
         <v>39</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299">
         <v>95355</v>
@@ -5738,7 +5738,7 @@
         <v>40</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300">
         <v>70644</v>
@@ -5755,7 +5755,7 @@
         <v>40</v>
       </c>
       <c r="C301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D301">
         <v>66933</v>
@@ -5772,7 +5772,7 @@
         <v>40</v>
       </c>
       <c r="C302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D302">
         <v>89048</v>
@@ -5789,7 +5789,7 @@
         <v>40</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D303">
         <v>59112</v>
@@ -5806,7 +5806,7 @@
         <v>40</v>
       </c>
       <c r="C304">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D304">
         <v>57328</v>
@@ -5826,7 +5826,7 @@
         <v>40</v>
       </c>
       <c r="C305">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D305">
         <v>72779</v>
@@ -5846,7 +5846,7 @@
         <v>40</v>
       </c>
       <c r="C306">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>40</v>
       </c>
       <c r="C307">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D307">
         <v>50622</v>
@@ -5877,7 +5877,7 @@
         <v>40</v>
       </c>
       <c r="C308">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D308">
         <v>106338</v>
@@ -5894,7 +5894,7 @@
         <v>40</v>
       </c>
       <c r="C309">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D309">
         <v>61720</v>
@@ -5914,7 +5914,7 @@
         <v>40</v>
       </c>
       <c r="C310">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D310">
         <v>132396</v>
@@ -5931,7 +5931,7 @@
         <v>40</v>
       </c>
       <c r="C311">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D311">
         <v>60026</v>
@@ -5951,7 +5951,7 @@
         <v>40</v>
       </c>
       <c r="C312">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D312">
         <v>118650</v>
@@ -5968,7 +5968,7 @@
         <v>40</v>
       </c>
       <c r="C313">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D313">
         <v>69510</v>
@@ -5988,7 +5988,7 @@
         <v>40</v>
       </c>
       <c r="C314">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D314">
         <v>64714</v>
@@ -6005,7 +6005,7 @@
         <v>40</v>
       </c>
       <c r="C315">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D315">
         <v>74158</v>
@@ -6022,7 +6022,7 @@
         <v>41</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>41</v>
       </c>
       <c r="C317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D317">
         <v>38924</v>
@@ -6053,7 +6053,7 @@
         <v>41</v>
       </c>
       <c r="C318">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D318">
         <v>36112</v>
@@ -6070,7 +6070,7 @@
         <v>41</v>
       </c>
       <c r="C319">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D319">
         <v>40956</v>
@@ -6087,7 +6087,7 @@
         <v>41</v>
       </c>
       <c r="C320">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D320">
         <v>57721</v>
@@ -6104,7 +6104,7 @@
         <v>42</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321">
         <v>135244</v>
@@ -6124,7 +6124,7 @@
         <v>42</v>
       </c>
       <c r="C322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D322">
         <v>71387</v>
@@ -6144,7 +6144,7 @@
         <v>42</v>
       </c>
       <c r="C323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D323">
         <v>192844</v>
@@ -6164,7 +6164,7 @@
         <v>42</v>
       </c>
       <c r="C324">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D324">
         <v>172550</v>
@@ -6184,7 +6184,7 @@
         <v>42</v>
       </c>
       <c r="C325">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D325">
         <v>137657</v>
@@ -6204,7 +6204,7 @@
         <v>43</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D326">
         <v>128669</v>
@@ -6221,7 +6221,7 @@
         <v>43</v>
       </c>
       <c r="C327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D327">
         <v>177648</v>
@@ -6238,7 +6238,7 @@
         <v>43</v>
       </c>
       <c r="C328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D328">
         <v>73240</v>
@@ -6255,7 +6255,7 @@
         <v>43</v>
       </c>
       <c r="C329">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D329">
         <v>49983</v>
@@ -6272,7 +6272,7 @@
         <v>43</v>
       </c>
       <c r="C330">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D330">
         <v>65041</v>
@@ -6289,7 +6289,7 @@
         <v>43</v>
       </c>
       <c r="C331">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D331">
         <v>92193</v>
@@ -6306,7 +6306,7 @@
         <v>43</v>
       </c>
       <c r="C332">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D332">
         <v>87783</v>
@@ -6323,7 +6323,7 @@
         <v>43</v>
       </c>
       <c r="C333">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D333">
         <v>84705</v>
@@ -6340,7 +6340,7 @@
         <v>43</v>
       </c>
       <c r="C334">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D334">
         <v>62193</v>
@@ -6357,7 +6357,7 @@
         <v>43</v>
       </c>
       <c r="C335">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D335">
         <v>44221</v>
@@ -6374,7 +6374,7 @@
         <v>43</v>
       </c>
       <c r="C336">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D336">
         <v>61832</v>
@@ -6391,7 +6391,7 @@
         <v>43</v>
       </c>
       <c r="C337">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D337">
         <v>86977</v>
@@ -6408,7 +6408,7 @@
         <v>43</v>
       </c>
       <c r="C338">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D338">
         <v>122651</v>
@@ -6425,7 +6425,7 @@
         <v>43</v>
       </c>
       <c r="C339">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -6439,7 +6439,7 @@
         <v>43</v>
       </c>
       <c r="C340">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -6453,7 +6453,7 @@
         <v>43</v>
       </c>
       <c r="C341">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D341">
         <v>73921</v>
@@ -6470,7 +6470,7 @@
         <v>43</v>
       </c>
       <c r="C342">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D342">
         <v>93177</v>
@@ -6487,7 +6487,7 @@
         <v>43</v>
       </c>
       <c r="C343">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -6501,7 +6501,7 @@
         <v>44</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D344">
         <v>86660</v>
@@ -6518,7 +6518,7 @@
         <v>44</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D345">
         <v>105318</v>
@@ -6535,7 +6535,7 @@
         <v>45</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>45</v>
       </c>
       <c r="C347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D347">
         <v>68438</v>
@@ -6566,7 +6566,7 @@
         <v>45</v>
       </c>
       <c r="C348">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D348">
         <v>46556</v>
@@ -6583,7 +6583,7 @@
         <v>45</v>
       </c>
       <c r="C349">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E349">
         <v>125930</v>
@@ -6600,7 +6600,7 @@
         <v>45</v>
       </c>
       <c r="C350">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D350">
         <v>71119</v>
@@ -6617,7 +6617,7 @@
         <v>45</v>
       </c>
       <c r="C351">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D351">
         <v>125172</v>
@@ -6637,7 +6637,7 @@
         <v>45</v>
       </c>
       <c r="C352">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D352">
         <v>68412</v>
@@ -6654,7 +6654,7 @@
         <v>46</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D353">
         <v>92438</v>
@@ -6671,7 +6671,7 @@
         <v>47</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E354">
         <v>115276</v>
@@ -6688,7 +6688,7 @@
         <v>47</v>
       </c>
       <c r="C355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D355">
         <v>37599</v>
@@ -6708,7 +6708,7 @@
         <v>47</v>
       </c>
       <c r="C356">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D356">
         <v>53943</v>
@@ -6725,7 +6725,7 @@
         <v>47</v>
       </c>
       <c r="C357">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D357">
         <v>51338</v>
@@ -6742,7 +6742,7 @@
         <v>47</v>
       </c>
       <c r="C358">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D358">
         <v>95635</v>
@@ -6759,7 +6759,7 @@
         <v>47</v>
       </c>
       <c r="C359">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D359">
         <v>37215</v>
@@ -6776,7 +6776,7 @@
         <v>47</v>
       </c>
       <c r="C360">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D360">
         <v>42260</v>
@@ -6793,7 +6793,7 @@
         <v>47</v>
       </c>
       <c r="C361">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D361">
         <v>42403</v>
@@ -6810,7 +6810,7 @@
         <v>47</v>
       </c>
       <c r="C362">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D362">
         <v>87308</v>
@@ -6827,7 +6827,7 @@
         <v>48</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D363">
         <v>33409</v>
@@ -6844,7 +6844,7 @@
         <v>48</v>
       </c>
       <c r="C364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D364">
         <v>44349</v>
@@ -6867,7 +6867,7 @@
         <v>48</v>
       </c>
       <c r="C365">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E365">
         <v>112726</v>
@@ -6884,7 +6884,7 @@
         <v>48</v>
       </c>
       <c r="C366">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E366">
         <v>0</v>
@@ -6898,7 +6898,7 @@
         <v>48</v>
       </c>
       <c r="C367">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E367">
         <v>89638</v>
@@ -6915,7 +6915,7 @@
         <v>48</v>
       </c>
       <c r="C368">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D368">
         <v>54986</v>
@@ -6935,7 +6935,7 @@
         <v>48</v>
       </c>
       <c r="C369">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D369">
         <v>49341</v>
@@ -6955,7 +6955,7 @@
         <v>48</v>
       </c>
       <c r="C370">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E370">
         <v>124897</v>
@@ -6972,7 +6972,7 @@
         <v>48</v>
       </c>
       <c r="C371">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D371">
         <v>77979</v>
@@ -6989,7 +6989,7 @@
         <v>48</v>
       </c>
       <c r="C372">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D372">
         <v>60020</v>
@@ -7009,7 +7009,7 @@
         <v>48</v>
       </c>
       <c r="C373">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E373">
         <v>107752</v>
@@ -7026,7 +7026,7 @@
         <v>48</v>
       </c>
       <c r="C374">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D374">
         <v>41720</v>
@@ -7046,7 +7046,7 @@
         <v>48</v>
       </c>
       <c r="C375">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D375">
         <v>16803</v>
@@ -7069,7 +7069,7 @@
         <v>48</v>
       </c>
       <c r="C376">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D376">
         <v>52420</v>
@@ -7089,7 +7089,7 @@
         <v>48</v>
       </c>
       <c r="C377">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D377">
         <v>48561</v>
@@ -7109,7 +7109,7 @@
         <v>48</v>
       </c>
       <c r="C378">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D378">
         <v>49257</v>
@@ -7129,7 +7129,7 @@
         <v>48</v>
       </c>
       <c r="C379">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D379">
         <v>42696</v>
@@ -7149,7 +7149,7 @@
         <v>48</v>
       </c>
       <c r="C380">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D380">
         <v>75963</v>
@@ -7169,7 +7169,7 @@
         <v>48</v>
       </c>
       <c r="C381">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D381">
         <v>21350</v>
@@ -7189,7 +7189,7 @@
         <v>48</v>
       </c>
       <c r="C382">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D382">
         <v>66538</v>
@@ -7206,7 +7206,7 @@
         <v>48</v>
       </c>
       <c r="C383">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E383">
         <v>135513</v>
@@ -7226,7 +7226,7 @@
         <v>48</v>
       </c>
       <c r="C384">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D384">
         <v>47789</v>
@@ -7246,7 +7246,7 @@
         <v>48</v>
       </c>
       <c r="C385">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D385">
         <v>55436</v>
@@ -7266,7 +7266,7 @@
         <v>48</v>
       </c>
       <c r="C386">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D386">
         <v>46360</v>
@@ -7286,7 +7286,7 @@
         <v>48</v>
       </c>
       <c r="C387">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D387">
         <v>64341</v>
@@ -7306,7 +7306,7 @@
         <v>48</v>
       </c>
       <c r="C388">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E388">
         <v>116758</v>
@@ -7323,7 +7323,7 @@
         <v>48</v>
       </c>
       <c r="C389">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D389">
         <v>44112</v>
@@ -7343,7 +7343,7 @@
         <v>48</v>
       </c>
       <c r="C390">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D390">
         <v>62471</v>
@@ -7363,7 +7363,7 @@
         <v>48</v>
       </c>
       <c r="C391">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D391">
         <v>41229</v>
@@ -7380,7 +7380,7 @@
         <v>48</v>
       </c>
       <c r="C392">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D392">
         <v>92971</v>
@@ -7397,7 +7397,7 @@
         <v>48</v>
       </c>
       <c r="C393">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D393">
         <v>45634</v>
@@ -7417,7 +7417,7 @@
         <v>48</v>
       </c>
       <c r="C394">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D394">
         <v>55281</v>
@@ -7437,7 +7437,7 @@
         <v>48</v>
       </c>
       <c r="C395">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D395">
         <v>43728</v>
@@ -7454,7 +7454,7 @@
         <v>48</v>
       </c>
       <c r="C396">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D396">
         <v>47457</v>
@@ -7474,7 +7474,7 @@
         <v>48</v>
       </c>
       <c r="C397">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D397">
         <v>60027</v>
@@ -7497,7 +7497,7 @@
         <v>48</v>
       </c>
       <c r="C398">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D398">
         <v>29291</v>
@@ -7520,7 +7520,7 @@
         <v>49</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D399">
         <v>31668</v>
@@ -7540,7 +7540,7 @@
         <v>49</v>
       </c>
       <c r="C400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D400">
         <v>42356</v>
@@ -7557,7 +7557,7 @@
         <v>49</v>
       </c>
       <c r="C401">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D401">
         <v>29575</v>
@@ -7574,7 +7574,7 @@
         <v>49</v>
       </c>
       <c r="C402">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D402">
         <v>60165</v>
@@ -7594,7 +7594,7 @@
         <v>50</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D403">
         <v>123896</v>
@@ -7611,7 +7611,7 @@
         <v>51</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404">
         <v>72053</v>
@@ -7628,7 +7628,7 @@
         <v>51</v>
       </c>
       <c r="C405">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D405">
         <v>100585</v>
@@ -7645,7 +7645,7 @@
         <v>51</v>
       </c>
       <c r="C406">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>51</v>
       </c>
       <c r="C407">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D407">
         <v>75214</v>
@@ -7679,7 +7679,7 @@
         <v>51</v>
       </c>
       <c r="C408">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D408">
         <v>72905</v>
@@ -7699,7 +7699,7 @@
         <v>51</v>
       </c>
       <c r="C409">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E409">
         <v>133202</v>
@@ -7716,7 +7716,7 @@
         <v>51</v>
       </c>
       <c r="C410">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D410">
         <v>89793</v>
@@ -7736,7 +7736,7 @@
         <v>51</v>
       </c>
       <c r="C411">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D411">
         <v>127981</v>
@@ -7756,7 +7756,7 @@
         <v>51</v>
       </c>
       <c r="C412">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E412">
         <v>117032</v>
@@ -7770,7 +7770,7 @@
         <v>51</v>
       </c>
       <c r="C413">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D413">
         <v>89896</v>
@@ -7790,7 +7790,7 @@
         <v>51</v>
       </c>
       <c r="C414">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D414">
         <v>106726</v>
@@ -7813,7 +7813,7 @@
         <v>52</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D415">
         <v>117337</v>
@@ -7830,7 +7830,7 @@
         <v>52</v>
       </c>
       <c r="C416">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D416">
         <v>118082</v>
@@ -7847,7 +7847,7 @@
         <v>52</v>
       </c>
       <c r="C417">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D417">
         <v>76839</v>
@@ -7864,7 +7864,7 @@
         <v>52</v>
       </c>
       <c r="C418">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E418">
         <v>150634</v>
@@ -7878,7 +7878,7 @@
         <v>52</v>
       </c>
       <c r="C419">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D419">
         <v>79113</v>
@@ -7895,7 +7895,7 @@
         <v>52</v>
       </c>
       <c r="C420">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D420">
         <v>139790</v>
@@ -7912,7 +7912,7 @@
         <v>52</v>
       </c>
       <c r="C421">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D421">
         <v>182519</v>
@@ -7929,7 +7929,7 @@
         <v>52</v>
       </c>
       <c r="C422">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D422">
         <v>68841</v>
@@ -7946,7 +7946,7 @@
         <v>52</v>
       </c>
       <c r="C423">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D423">
         <v>107368</v>
@@ -7963,7 +7963,7 @@
         <v>52</v>
       </c>
       <c r="C424">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D424">
         <v>95001</v>
@@ -7980,7 +7980,7 @@
         <v>53</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425">
         <v>51755</v>
@@ -7997,7 +7997,7 @@
         <v>53</v>
       </c>
       <c r="C426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D426">
         <v>67325</v>
@@ -8017,7 +8017,7 @@
         <v>53</v>
       </c>
       <c r="C427">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D427">
         <v>62309</v>
@@ -8034,7 +8034,7 @@
         <v>54</v>
       </c>
       <c r="C428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D428">
         <v>105465</v>
@@ -8051,7 +8051,7 @@
         <v>54</v>
       </c>
       <c r="C429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D429">
         <v>224548</v>
@@ -8068,7 +8068,7 @@
         <v>54</v>
       </c>
       <c r="C430">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D430">
         <v>155221</v>
@@ -8085,7 +8085,7 @@
         <v>54</v>
       </c>
       <c r="C431">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D431">
         <v>178822</v>
@@ -8102,7 +8102,7 @@
         <v>54</v>
       </c>
       <c r="C432">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D432">
         <v>101065</v>
@@ -8119,7 +8119,7 @@
         <v>54</v>
       </c>
       <c r="C433">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D433">
         <v>122146</v>
@@ -8139,7 +8139,7 @@
         <v>54</v>
       </c>
       <c r="C434">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D434">
         <v>112895</v>
@@ -8159,7 +8159,7 @@
         <v>54</v>
       </c>
       <c r="C435">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D435">
         <v>101045</v>
@@ -8176,7 +8176,7 @@
         <v>55</v>
       </c>
       <c r="C436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D436">
         <v>37365</v>
